--- a/src/main/DataSource/ArrayData1.xlsx
+++ b/src/main/DataSource/ArrayData1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D0366-3307-4CF6-9C4C-E7CDD66A44AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDF4AF-3D8F-4EA9-A922-02F2E6418959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="696" windowWidth="15852" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,9 +558,7 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>40</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>

--- a/src/main/DataSource/ArrayData1.xlsx
+++ b/src/main/DataSource/ArrayData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDF4AF-3D8F-4EA9-A922-02F2E6418959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FD1512-8CDF-4CD2-930F-279AE8F671E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="696" windowWidth="15852" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,9 +467,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>35</v>
       </c>
@@ -490,9 +488,7 @@
       <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="D4" s="1">
-        <v>45</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -504,9 +500,7 @@
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>555</v>
       </c>
@@ -518,9 +512,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>11</v>
       </c>
@@ -567,9 +559,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>25750</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>

--- a/src/main/DataSource/ArrayData1.xlsx
+++ b/src/main/DataSource/ArrayData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FD1512-8CDF-4CD2-930F-279AE8F671E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4A174-8813-4F71-985E-DB947866D0BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="696" windowWidth="15852" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,66 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Array Value1</t>
-  </si>
-  <si>
-    <t>Array Value2</t>
-  </si>
-  <si>
-    <t>Array Value3</t>
-  </si>
-  <si>
-    <t>Array Value4</t>
-  </si>
-  <si>
-    <t>Array Value5</t>
-  </si>
-  <si>
-    <t>Array Value6</t>
-  </si>
-  <si>
-    <t>Array Value7</t>
-  </si>
-  <si>
-    <t>Array Value8</t>
-  </si>
-  <si>
-    <t>Array Value9</t>
-  </si>
-  <si>
-    <t>Array Value10</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Value4</t>
-  </si>
-  <si>
-    <t>Value5</t>
-  </si>
-  <si>
-    <t>Value6</t>
-  </si>
-  <si>
-    <t>Value7</t>
-  </si>
-  <si>
-    <t>Value8</t>
-  </si>
-  <si>
-    <t>Value9</t>
-  </si>
-  <si>
-    <t>Value10</t>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -415,176 +358,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>-5</v>
-      </c>
-      <c r="C1" s="1">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1000</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>555</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>45</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/DataSource/ArrayData1.xlsx
+++ b/src/main/DataSource/ArrayData1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4A174-8813-4F71-985E-DB947866D0BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E3F6A8-4ADD-41DC-ACEE-4E3531A95D1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="696" windowWidth="15852" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>String</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,9 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,53 +364,59 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
